--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F3100-1D4F-402E-88D2-8F22FCF275A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA91CF1-7AB5-4A92-9DB4-DA00A340B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Name:</t>
   </si>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.87847222222222232</v>
+        <v>0.46180555555555564</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1000,13 +1000,19 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="17"/>
+      <c r="A16" s="7">
+        <v>45955</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.41666666666666669</v>
       </c>
       <c r="F16" s="13"/>
     </row>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA91CF1-7AB5-4A92-9DB4-DA00A340B021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7862BC5-E5A7-4F6C-9ED8-8D729471FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Name:</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Flashed onto all three ESP32's, helped members install development on computers, defined structure for Sunday's end, created main skeleton, investigated examples to create hardware drivers</t>
+  </si>
+  <si>
+    <t>Began writing report, determined how to integrate ADC into main alongside Fernando, began creating ADC peripheral interface and editted CMakeList.txt to include it after several attempts, tried to create ADC structure to center ADC initialization in one function but failed.</t>
   </si>
 </sst>
 </file>
@@ -696,18 +699,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="166.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="218.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -722,7 +725,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.46180555555555564</v>
+        <v>1.1458333333333335</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1009,12 +1012,16 @@
       <c r="C16" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="17">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="E16" s="10">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666669</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7862BC5-E5A7-4F6C-9ED8-8D729471FC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C047D-FD58-4E5F-B701-E2CC70442496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Name:</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Began writing report, determined how to integrate ADC into main alongside Fernando, began creating ADC peripheral interface and editted CMakeList.txt to include it after several attempts, tried to create ADC structure to center ADC initialization in one function but failed.</t>
+  </si>
+  <si>
+    <t>Reviewed and editted cleaned up code/ReadMe, adjusted report</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +728,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.1458333333333335</v>
+        <v>1.2041666666666668</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1024,15 +1027,25 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="A17" s="7">
+        <v>45955</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.85138888888888886</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.90972222222222221</v>
+      </c>
       <c r="E17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="13"/>
+        <v>5.8333333333333348E-2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29C047D-FD58-4E5F-B701-E2CC70442496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B7EAB-6782-4635-A15E-36EDE90BAF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Name:</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Reviewed and editted cleaned up code/ReadMe, adjusted report</t>
+  </si>
+  <si>
+    <t>Record and edit microprocessor portion of video</t>
+  </si>
+  <si>
+    <t>Clean up readme and edit in frontend portion of video</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,7 +734,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.2041666666666668</v>
+        <v>1.2701388888888892</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1048,26 +1054,46 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="7">
+        <v>45956</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="13"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="7">
+        <v>45956</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.68402777777777779</v>
+      </c>
       <c r="E19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="13"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399B7EAB-6782-4635-A15E-36EDE90BAF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E334E36-38E5-44B8-9EBB-4937BFBD2F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1524" windowWidth="17280" windowHeight="9528" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Name:</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Clean up readme and edit in frontend portion of video</t>
+  </si>
+  <si>
+    <t>Check-in 4: Met with group &amp; Tyler, discussed how we needed to begin implementing communication for the prototype. Sat down with group and designated work to reach these goals.</t>
+  </si>
+  <si>
+    <t>Check-in 5: Met with group &amp; Tyler, discussed work that was completed and set up group work day for following Thursday. Also discussed what work would be completed to meet goals and beginning communication and test sensors.</t>
+  </si>
+  <si>
+    <t>Prototype Dev.</t>
   </si>
 </sst>
 </file>
@@ -709,7 +718,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +743,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.2701388888888892</v>
+        <v>1.3118055555555559</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1096,30 +1105,54 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="E20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="13"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="E21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="13"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="10">

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E334E36-38E5-44B8-9EBB-4937BFBD2F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98592D94-6309-4AE5-BC2E-2AA3561B026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Prototype Dev.</t>
+  </si>
+  <si>
+    <t>Met with group to conduct work;</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +746,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.3118055555555559</v>
+        <v>0.88819444444444473</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1153,13 +1156,17 @@
       <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="17">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="D22" s="17"/>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="13"/>
+        <v>-0.4236111111111111</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98592D94-6309-4AE5-BC2E-2AA3561B026A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C15D00-089E-44E4-81E9-B260D1A3A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>Prototype Dev.</t>
   </si>
   <si>
-    <t>Met with group to conduct work;</t>
+    <t>Met with group to conduct work; Researched how to use 5V Micro Submersible Mini Water Pump, discovered it needed use of PWM,  configured PWM in main to test it, developed PWM peripheral module to use in main, integrated it into main</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C15D00-089E-44E4-81E9-B260D1A3A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98492C00-A11A-470B-A0D8-493B1E1C2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>Prototype Dev.</t>
   </si>
   <si>
-    <t>Met with group to conduct work; Researched how to use 5V Micro Submersible Mini Water Pump, discovered it needed use of PWM,  configured PWM in main to test it, developed PWM peripheral module to use in main, integrated it into main</t>
+    <t>Met with group to conduct work; Researched how to use 5V Micro Submersible Mini Water Pump, discovered it needed use of PWM,  configured PWM in main to test it, developed PWM peripheral module to use in main, integrated it into main, added photos, created branch for another sensor</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,7 +746,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.88819444444444473</v>
+        <v>1.5069444444444449</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1159,10 +1159,12 @@
       <c r="C22" s="17">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="17">
+        <v>0.61875000000000002</v>
+      </c>
       <c r="E22" s="10">
         <f t="shared" si="0"/>
-        <v>-0.4236111111111111</v>
+        <v>0.19513888888888892</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>36</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98492C00-A11A-470B-A0D8-493B1E1C2FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B0297-322A-495B-AD5E-1F063CE19D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Name:</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Met with group to conduct work; Researched how to use 5V Micro Submersible Mini Water Pump, discovered it needed use of PWM,  configured PWM in main to test it, developed PWM peripheral module to use in main, integrated it into main, added photos, created branch for another sensor</t>
+  </si>
+  <si>
+    <t>Began researching how Capacitive Soil Moisture Sensor should interface with the microcontroller and the type of data it outputs, started deciding how to modify ADC code to generalize and be used for both photoresitor and this sensor.</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +734,7 @@
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="218.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="234.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -746,7 +749,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.5069444444444449</v>
+        <v>1.0347222222222228</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1171,15 +1174,23 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="7">
+        <v>45970</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.47222222222222221</v>
+      </c>
       <c r="D23" s="17"/>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="13"/>
+        <v>-0.47222222222222221</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186B0297-322A-495B-AD5E-1F063CE19D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA7570-DB6B-40BE-AA8E-9412F9035F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -149,7 +149,7 @@
     <t>Met with group to conduct work; Researched how to use 5V Micro Submersible Mini Water Pump, discovered it needed use of PWM,  configured PWM in main to test it, developed PWM peripheral module to use in main, integrated it into main, added photos, created branch for another sensor</t>
   </si>
   <si>
-    <t>Began researching how Capacitive Soil Moisture Sensor should interface with the microcontroller and the type of data it outputs, started deciding how to modify ADC code to generalize and be used for both photoresitor and this sensor.</t>
+    <t>Began researching how Capacitive Soil Moisture Sensor should interface with the microcontroller and the type of data it outputs, started deciding how to modify ADC code to generalize and be used for both photoresitor and this sensor, made modular way to declare ADC for light or moisture sensor</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.0347222222222228</v>
+        <v>1.5388888888888892</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1183,10 +1183,12 @@
       <c r="C23" s="17">
         <v>0.47222222222222221</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="17">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="E23" s="10">
         <f t="shared" si="0"/>
-        <v>-0.47222222222222221</v>
+        <v>3.1944444444444442E-2</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>37</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CA7570-DB6B-40BE-AA8E-9412F9035F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C0AEA3-508D-4774-8BB3-0E9255CE5F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Name:</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Began researching how Capacitive Soil Moisture Sensor should interface with the microcontroller and the type of data it outputs, started deciding how to modify ADC code to generalize and be used for both photoresitor and this sensor, made modular way to declare ADC for light or moisture sensor</t>
+  </si>
+  <si>
+    <t>Changed file name's of ADC and related dependencies to make the module more generalizable</t>
   </si>
 </sst>
 </file>
@@ -723,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,7 +752,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.5388888888888892</v>
+        <v>0.73333333333333361</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1195,15 +1198,23 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="7">
+        <v>45970</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0.80555555555555558</v>
+      </c>
       <c r="D24" s="17"/>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="13"/>
+        <v>-0.80555555555555558</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C0AEA3-508D-4774-8BB3-0E9255CE5F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E55FB0-7C17-4139-B427-BB38D421E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>0.73333333333333361</v>
+        <v>1.5493055555555557</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1207,10 +1207,12 @@
       <c r="C24" s="17">
         <v>0.80555555555555558</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="17">
+        <v>0.81597222222222221</v>
+      </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>-0.80555555555555558</v>
+        <v>1.041666666666663E-2</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>38</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E55FB0-7C17-4139-B427-BB38D421E14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC68C81E-A0BD-471D-9A07-EAC5CDC8BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -727,7 +727,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.5493055555555557</v>
+        <v>1.552777777777778</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1208,11 +1208,11 @@
         <v>0.80555555555555558</v>
       </c>
       <c r="D24" s="17">
-        <v>0.81597222222222221</v>
+        <v>0.81944444444444442</v>
       </c>
       <c r="E24" s="10">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>38</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC68C81E-A0BD-471D-9A07-EAC5CDC8BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89B1EE-41DB-4564-9376-D2B99A086380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Name:</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Changed file name's of ADC and related dependencies to make the module more generalizable</t>
+  </si>
+  <si>
+    <t>Check-in 6: Met with group &amp; Tyler, updated everyone on features currently implemented and made plans for the following Tuesday for each person to complete</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +755,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.552777777777778</v>
+        <v>1.5736111111111115</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1219,15 +1222,25 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="7">
+        <v>45971</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED89B1EE-41DB-4564-9376-D2B99A086380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F434A-48C5-45AE-8E74-6691A44D4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Name:</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Check-in 6: Met with group &amp; Tyler, updated everyone on features currently implemented and made plans for the following Tuesday for each person to complete</t>
+  </si>
+  <si>
+    <t>Got together, started integrating ADC branch and rearranged main to work as desired for prototype</t>
   </si>
 </sst>
 </file>
@@ -729,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +758,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.5736111111111115</v>
+        <v>1.1152777777777783</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1243,15 +1246,23 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D26" s="17"/>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="13"/>
+        <v>-0.45833333333333331</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493F434A-48C5-45AE-8E74-6691A44D4B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4DA7C-BD38-477F-8364-1C0021ABBA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <t>Check-in 6: Met with group &amp; Tyler, updated everyone on features currently implemented and made plans for the following Tuesday for each person to complete</t>
   </si>
   <si>
-    <t>Got together, started integrating ADC branch and rearranged main to work as desired for prototype</t>
+    <t>Got together, started integrating ADC branch and rearranged main to work as desired for prototype, created GPIO for inputs and started investigating interrupt system, created external switch to interface with micro, looked into getting wifi created to flash onto ESP32</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.1152777777777783</v>
+        <v>1.8506944444444449</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1255,10 +1255,12 @@
       <c r="C26" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="17">
+        <v>0.73541666666666672</v>
+      </c>
       <c r="E26" s="10">
         <f t="shared" si="0"/>
-        <v>-0.45833333333333331</v>
+        <v>0.2770833333333334</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>40</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4DA7C-BD38-477F-8364-1C0021ABBA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EC769-B4DA-4962-BD4C-B243E4874B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Name:</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Got together, started integrating ADC branch and rearranged main to work as desired for prototype, created GPIO for inputs and started investigating interrupt system, created external switch to interface with micro, looked into getting wifi created to flash onto ESP32</t>
+  </si>
+  <si>
+    <t>Got together with group, beginning doing gpio integration to set up sensor set up</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +761,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.8506944444444449</v>
+        <v>1.3923611111111116</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1269,13 +1272,17 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="17">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D27" s="17"/>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="13"/>
+        <v>-0.45833333333333331</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EC769-B4DA-4962-BD4C-B243E4874B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97A908-3992-4F64-863E-FE5AA32A4AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Name:</t>
   </si>
@@ -161,7 +161,7 @@
     <t>Got together, started integrating ADC branch and rearranged main to work as desired for prototype, created GPIO for inputs and started investigating interrupt system, created external switch to interface with micro, looked into getting wifi created to flash onto ESP32</t>
   </si>
   <si>
-    <t>Got together with group, beginning doing gpio integration to set up sensor set up</t>
+    <t>Got together with group, started doing gpio integration to set up sensor set up, created prototype board,  connected and tested moisture sensor, connected and tested new photoresistor, created wires for relay and power bank and tested water motor, editted main to reflect prototype behavior</t>
   </si>
 </sst>
 </file>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25321167-01B1-413D-AB29-4165F3CF20BA}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>1.3923611111111116</v>
+        <v>2.1243055555555559</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1270,15 +1270,21 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="7">
+        <v>45974</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="17">
+        <v>0.7319444444444444</v>
+      </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>-0.45833333333333331</v>
+        <v>0.27361111111111108</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>41</v>

--- a/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
+++ b/Documentation/TimeSheets/TimeReport_AspenBoler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19042\Downloads\HW\CEN3907\plant-partner\Documentation\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C97A908-3992-4F64-863E-FE5AA32A4AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD21E8D1-1594-47EF-8213-2A01C9E7E5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{605B5A91-C2DF-4ED5-9E2C-366EB894E8F1}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(E4:E199)</f>
-        <v>2.1243055555555559</v>
+        <v>2.130555555555556</v>
       </c>
       <c r="F1" s="15"/>
     </row>
@@ -1280,11 +1280,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D27" s="17">
-        <v>0.7319444444444444</v>
+        <v>0.73819444444444449</v>
       </c>
       <c r="E27" s="10">
         <f t="shared" si="0"/>
-        <v>0.27361111111111108</v>
+        <v>0.27986111111111117</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>41</v>
